--- a/Data/Transitions/19371963Translation.xlsx
+++ b/Data/Transitions/19371963Translation.xlsx
@@ -31,10 +31,10 @@
     <t>{2.0: 1.0, 840.0: 0.004316784414945863, 303.0: 0.00026558267339449093}</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7512315030382182e-06}</t>
-  </si>
-  <si>
-    <t>{5.0: 0.9810626254491548, 403.0: 0.005887612687734961}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7174174533209238e-06}</t>
+  </si>
+  <si>
+    <t>{5.0: 0.9810626254491548, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -100,7 +100,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -109,7 +109,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927088692332578}</t>
+    <t>{49.0: 0.8862224855942327}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -163,10 +163,10 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837, 271.0: 0.0016780179646629157}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{79.0: 0.9993761696818465, 271.0: 0.0016780179646629157}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491, 914.0: 0.001365578724140128, 110.0: 0.0001885338002122541}</t>
@@ -178,7 +178,7 @@
     <t>{84.0: 0.9624619546838011}</t>
   </si>
   <si>
-    <t>{85.0: 0.9895784953063307, 178.0: 0.008695627667129929, 492.0: 0.003418852880658436, 97.0: 1.3219344149476795e-05, 696.0: 3.4452665911908995e-06}</t>
+    <t>{85.0: 0.9895402914516633, 178.0: 0.008741692524372261, 492.0: 0.003418852880658436, 97.0: 1.317900243106368e-05, 696.0: 3.34744081004416e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -190,13 +190,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.4030499998860047e-06}</t>
+    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.3973902580550808e-06}</t>
   </si>
   <si>
     <t>{91.0: 0.9618488000094441, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
   </si>
   <si>
-    <t>{92.0: 1.0, 91.0: 0.038151199990555905, 858.0: 0.11121885973409691}</t>
+    <t>{92.0: 1.0, 91.0: 0.038151199990555905, 858.0: 0.10371055410031664}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,7 +208,7 @@
     <t>{96.0: 1.0, 100.0: 0.001081665765278529}</t>
   </si>
   <si>
-    <t>{97.0: 0.9722904830708197}</t>
+    <t>{97.0: 0.9723237186088487}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -232,10 +232,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.008041738771458164}</t>
-  </si>
-  <si>
-    <t>{107.0: -0.005397783378865379, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -256,13 +256,13 @@
     <t>{142.0: 0.9962324013484037}</t>
   </si>
   <si>
-    <t>{144.0: 0.04837837837837838}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9516216216216217}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9978703221696027, 743.0: 0.0029220468706393416, 544.0: 2.5343881103012855e-06, 975.0: 0.0051123267978852175, 942.0: 0.03103499664687912, 152.0: 0.000366016192556977}</t>
+    <t>{144.0: 0.0447239110518864}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9552760889481136}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9978703221696027, 743.0: 0.0029298788622231006, 544.0: 2.5343881103012855e-06, 975.0: 0.0051123267978852175, 942.0: 0.031034664688250113, 152.0: 0.0003660192689772492}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -280,7 +280,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054}</t>
+    <t>{152.0: 0.9280286630608138}</t>
   </si>
   <si>
     <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851}</t>
@@ -313,10 +313,10 @@
     <t>{172.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.511520929137317e-06, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.4933219741992875e-06, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -328,40 +328,40 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9761333054798886, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4138999238272808, 850.0: 0.0011018966358130604}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5861000761727191, 850.0: 0.001560332981491432}</t>
+    <t>{178.0: 0.976087630142054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4137337614901977, 850.0: 0.0011036579166127315}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5862662385098023, 850.0: 0.0015638979353379187}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
   </si>
   <si>
     <t>{183.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06, 212.0: 4.3421902644130816e-09}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2765425174972384, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.9011118598382749}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06, 212.0: 4.324674369841023e-09}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.27656206348482465, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.9116096973347387}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -370,22 +370,22 @@
     <t>{206.0: 0.9990879610863397, 578.0: 0.18188242287177528}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.001947570591010176}</t>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.001947570591010176}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -406,19 +406,19 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 503.0: 0.04728284124946513}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 503.0: 0.047506448839208945}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -427,7 +427,7 @@
     <t>{226.0: 0.7384353461125667, 216.0: 0.033211370672670985}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10729113076674225}</t>
+    <t>{49.0: 0.11377751440576732}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,19 +457,19 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
-  </si>
-  <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -478,10 +478,10 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -502,7 +502,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -526,22 +526,22 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.0017117774048765308}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0017292620441237876}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{267.0: 1.0, 887.0: 0.0039276426066777795}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 0.9983219820353371}</t>
@@ -562,7 +562,7 @@
     <t>{276.0: 0.9998061451972473, 167.0: 0.0005353319057815846, 596.0: 0.0005353319057815846}</t>
   </si>
   <si>
-    <t>{277.0: 0.9936107335861508}</t>
+    <t>{277.0: 0.9936084889661906}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -574,7 +574,7 @@
     <t>{281.0: 1.0, 599.0: 0.005091539378182212, 621.0: 0.04563312178906014}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235, 277.0: 0.003599134333067344}</t>
+    <t>{282.0: 0.9971910112359551, 277.0: 0.0035991262024297707}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -583,10 +583,10 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.057003881354220694}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.05257719916943447, 306.0: 0.00631396710626814, 788.0: 0.026298366265383358}</t>
+    <t>{285.0: 1.0, 311.0: 0.08782941840400513}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.05257719916943447, 306.0: 0.00631396710626814, 788.0: 0.026172626732387502}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -613,10 +613,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127, 749.0: 0.0005137426149499101}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354, 749.0: 0.0005137426149499101}</t>
   </si>
   <si>
     <t>{299.0: 0.9421714285714285, 443.0: 0.013510568751361952}</t>
@@ -643,13 +643,13 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -679,22 +679,22 @@
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 141.0: 0.0015162157654260925}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.3602408039990831, 907.0: 0.3609253569492138}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{402.0: 0.9983019057254231, 141.0: 0.0015162157654260925}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.5153463240358885, 907.0: 0.5163452332102312}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -703,7 +703,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -712,7 +712,7 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6378625352732888, 907.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.4827190998121594, 907.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -736,13 +736,13 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9911644356572448, 212.0: 0.0008028873516867112}</t>
+    <t>{420.0: 0.9911644356572448, 212.0: 0.0007996485967383983}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
+    <t>{597.0: 0.13779986025929664}</t>
   </si>
   <si>
     <t>{423.0: 0.998298837538985}</t>
@@ -757,19 +757,19 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.2669725101108509, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7321078791910113}</t>
+    <t>{428.0: 0.2118598838073569, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7872205054945053}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0928228081487114e-05, 918.0: 6.570736109710267e-07}</t>
@@ -781,7 +781,7 @@
     <t>{434.0: 1.0, 585.0: 0.2521276595744681}</t>
   </si>
   <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5751974037386366e-06}</t>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5571981727767432e-06}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -811,13 +811,13 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{477.0: 0.08064737321770447}</t>
+    <t>{477.0: 0.080645882789361}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -844,13 +844,13 @@
     <t>{489.0: 0.9861400416599904}</t>
   </si>
   <si>
-    <t>{490.0: 1.0, 503.0: 0.007702182284980745}</t>
+    <t>{490.0: 1.0, 503.0: 0.007738607050730868}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 97.0: 0.027692600544453445, 696.0: 0.0010033170977494122, 85.0: 0.0014245921465699139, 178.0: 0.015123639130140285}</t>
+    <t>{492.0: 0.995625, 97.0: 0.02765941663047021, 696.0: 0.0009748286553524804, 85.0: 0.0014245371484958996, 178.0: 0.015122998363626934}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
@@ -871,16 +871,16 @@
     <t>{499.0: 0.9532064834390416}</t>
   </si>
   <si>
-    <t>{500.0: 0.9948123283490998, 277.0: 0.0002631322261018224}</t>
+    <t>{500.0: 0.9948123283490998, 277.0: 0.00026313163167200507}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9450149764655541}</t>
+    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9447549441100602}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -895,10 +895,10 @@
     <t>{507.0: 0.9989233419465977}</t>
   </si>
   <si>
-    <t>{529.0: 1.0, 530.0: 0.016173856462781022, 680.0: 0.0007046030419586122, 481.0: 1.3057803072405517e-05}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.983826143537219}</t>
+    <t>{529.0: 1.0, 530.0: 0.016548865747358192, 680.0: 0.0007046030419586122, 481.0: 1.3057803072405517e-05}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9834511342526419}</t>
   </si>
   <si>
     <t>{531.0: 0.9893040072310937, 262.0: 0.02188001834926148, 442.0: 0.0020783697630905327}</t>
@@ -910,7 +910,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -919,7 +919,7 @@
     <t>{536.0: 1.0}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -931,10 +931,10 @@
     <t>{540.0: 1.0, 428.0: 0.0009196106981377883}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -970,7 +970,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -988,10 +988,10 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.9356220484668233, 752.0: 0.04612635356536104, 728.0: 0.002418704649287826}</t>
+    <t>{573.0: 0.5470310513891411}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.935665293499582, 752.0: 0.046284020554380495, 728.0: 0.002418704649287826}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -1000,7 +1000,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -1018,7 +1018,7 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1027,16 +1027,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401, 171.0: 0.001857864099887012}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 171.0: 0.003889262336894597, 85.0: 0.005397362490856421, 178.0: 4.742772284122022e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.210099310416157e-08, 696.0: 1.879118509395074e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{593.0: 0.49682353666810586, 171.0: 0.0028553076820006084}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 171.0: 0.0028918187547810007, 85.0: 0.0053971541192586485, 178.0: 4.767896994673605e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.188096116246882e-08, 696.0: 1.8257623376204746e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1057,7 +1057,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012118805145684393}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012119753465340602}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
@@ -1069,7 +1069,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46377929329690437}</t>
@@ -1126,10 +1126,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1150,19 +1150,19 @@
     <t>{636.0: 0.997141768292683}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9963087013294778, 481.0: 0.018463733544381404}</t>
   </si>
   <si>
-    <t>{681.0: 0.9820654782199828, 171.0: 0.004721923759538046, 90.0: 0.0007064997981429148, 420.0: 1.2245688894066165e-06, 212.0: 0.007649302086290667}</t>
+    <t>{681.0: 0.9819800735702071, 171.0: 0.004721923759538046, 90.0: 0.0007064997981429148, 420.0: 1.2245688894066165e-06, 212.0: 0.0076493270976099636}</t>
   </si>
   <si>
     <t>{682.0: 1.0, 575.0: 0.001903772931810315}</t>
@@ -1180,7 +1180,7 @@
     <t>{686.0: 0.989437624892949}</t>
   </si>
   <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088}</t>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1201,19 +1201,19 @@
     <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247}</t>
   </si>
   <si>
-    <t>{695.0: 0.9726124982080356}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989932188444743, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.624939584340261e-06}</t>
+    <t>{695.0: 0.9726649784458168}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990218056462141, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.2012909422220707}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7987090577779293}</t>
+    <t>{698.0: 0.43055025898790067}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5694497410120993}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1222,7 +1222,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1267,13 +1267,13 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1294,7 +1294,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.06437795153317666}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.0643347065004179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1336,7 +1336,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1345,7 +1345,7 @@
     <t>{772.0: 1.0, 493.0: 0.0006747638326585695}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1357,31 +1357,31 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9965028529357629, 420.0: 0.0015274415281050933, 212.0: 1.2372956890280223e-06, 184.0: 0.006191381503173426}</t>
+    <t>{778.0: 0.9965028529357629, 420.0: 0.0015274415281050933, 212.0: 1.2323045809641737e-06, 184.0: 0.006191381503173426}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.0005083687087665827, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.0005025597569608143, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.0051876716509002135, 277.0: 1.3721619152549018e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.040079086164010985}</t>
+    <t>{787.0: 1.0, 500.0: 0.0051876716509002135, 277.0: 1.372158815467511e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.035008805891847364}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1396,7 +1396,7 @@
     <t>{833.0: 0.9992826398852224, 17.0: 0.015223021717511548, 918.0: 0.0009153035400826402}</t>
   </si>
   <si>
-    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -1.0635624241439053e-05}</t>
+    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -9.290144567754873e-06}</t>
   </si>
   <si>
     <t>{835.0: 1.0, 756.0: 0.012552301255230125}</t>
@@ -1423,7 +1423,7 @@
     <t>{842.0: 1.0, 606.0: 0.002308136180034622}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1435,22 +1435,22 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.9198774700023947}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.9196454994271116}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 0.1141255380919011}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0022079438801396994}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 202.0: 0.7234574825027617, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756, 680.0: 0.002986695628563671}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022801572723862235}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 202.0: 0.7234379365151753, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756, 680.0: 0.002986695628563671}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1462,10 +1462,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1474,7 +1474,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6808248608561583, 619.0: 0.0001431947985895543}</t>
+    <t>{861.0: 0.6849891000612596, 619.0: 0.0001431947985895543}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1495,7 +1495,7 @@
     <t>{888.0: 0.3122645438196057}</t>
   </si>
   <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1513,28 +1513,28 @@
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{905.0: 1.0, 499.0: 0.04679351656095842}</t>
   </si>
   <si>
-    <t>{906.0: 0.9929245283018868, 477.0: 0.002241450061637145}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5007363616604456}</t>
+    <t>{906.0: 0.9929245283018868, 477.0: 0.0022414086378366033}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.49850949482794676}</t>
   </si>
   <si>
     <t>{909.0: 0.9474228008305655}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.3191751391438416}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.3150108999387404}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1555,7 +1555,7 @@
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125, 695.0: 0.007544505480605318}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632, 695.0: 0.0075449125671298}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1564,7 +1564,7 @@
     <t>{921.0: 0.9903586579251832, 686.0: 0.0105623751070511}</t>
   </si>
   <si>
-    <t>{922.0: 0.9965801756052919, 887.0: 0.046750524109014674}</t>
+    <t>{922.0: 0.9965078673810798, 887.0: 0.046750524109014674}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1573,7 +1573,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.4884613327317675e-06}</t>
+    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.5240935871107877e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1603,25 +1603,25 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
-  </si>
-  <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
+  </si>
+  <si>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.9597625493653908}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082, 634.0: 0.07647622188456976}</t>
+    <t>{942.0: 0.9597522834883334}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371, 634.0: 0.07684418903273924}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 152.0: 0.00043336244194414986}</t>
+    <t>{971.0: 0.9959752321981424, 152.0: 0.00042499476517949327}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1633,7 +1633,7 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9941776158300827, 152.0: 0.07117800722589049}</t>
+    <t>{975.0: 0.9941776158300827, 152.0: 0.07117860548757622}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.3755864039975379}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27666958868729524}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.09888814016172506}</t>
+    <t>{992.0: 0.4315215930889716}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.22073862393611562}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.08839030266526125}</t>
   </si>
   <si>
     <t>{1.0: 0.9935835739493102, 886.0: 0.006416426050689767}</t>
@@ -1735,7 +1735,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680972, 178.0: 0.023807093342605865, 492.0: 0.00889676964238059, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
+    <t>{85.0: 0.9672733850680972, 178.0: 0.023807093342605865, 492.0: 0.008896769642380589, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180957, 694.0: 0.011355364681904206}</t>
@@ -1834,16 +1834,16 @@
     <t>{177.0: 0.9988607234406152, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5950678828464971, 180.0: 0.40475093947244994, 850.0: 0.0001811776810530214}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919333, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5960977403468276, 180.0: 0.4037215427584728, 850.0: 0.00018071689469940593}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069352, 850.0: 0.00044742729306487713}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971718123968886, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073771}</t>
+    <t>{182.0: 0.997160771323791, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944757}</t>
   </si>
   <si>
     <t>{184.0: 0.9861056345130486, 778.0: 0.013866895408883105, 420.0: 2.7465559220133375e-05, 212.0: 4.518848177053863e-09}</t>
@@ -1867,7 +1867,7 @@
     <t>{206.0: 0.8017747931406644, 578.0: 0.19822520685933565}</t>
   </si>
   <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663015, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
@@ -1888,7 +1888,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 0.8492496589358798, 503.0: 0.15075034106412005}</t>
+    <t>{222.0: 0.8489405331510597, 503.0: 0.15105946684894053}</t>
   </si>
   <si>
     <t>{627.0: 1.0}</t>
@@ -1897,7 +1897,7 @@
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628103, 297.0: 0.00018045618356780222, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524383, 297.0: 0.00017861479393955929, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{230.0: 1.0}</t>
@@ -1909,13 +1909,13 @@
     <t>{238.0: 0.9953091684434969, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.23802619996893287, 241.0: 0.7619738000310673}</t>
+    <t>{240.0: 0.23802619996893298, 241.0: 0.7619738000310673}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -1936,7 +1936,7 @@
     <t>{262.0: 0.9992897727272729, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492866}</t>
+    <t>{263.0: 0.998602427363001, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
@@ -1945,13 +1945,13 @@
     <t>{267.0: 0.9888487040385775, 887.0: 0.011151295961422548}</t>
   </si>
   <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.01235614765786211, 942.0: 0.0002797618337629159}</t>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328585, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.990102929532858, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937941, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1972,10 +1972,10 @@
     <t>{286.0: 0.8915562773711534, 909.0: 0.055875909476797075, 306.0: 0.008346234098404792, 788.0: 0.044221579053644745}</t>
   </si>
   <si>
-    <t>{297.0: 0.9603432910825851, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9856576766219584, 297.0: 0.013916655611733712, 749.0: 0.0004256677663083963}</t>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9856591443139645, 297.0: 0.013915187919726558, 749.0: 0.0004256677663083963}</t>
   </si>
   <si>
     <t>{299.0: 0.9843037974683544, 443.0: 0.01569620253164557}</t>
@@ -1993,7 +1993,7 @@
     <t>{306.0: 0.9980565642100954, 142.0: 0.0019434357899043623}</t>
   </si>
   <si>
-    <t>{309.0: 0.9989234081820978, 204.0: 0.001076591817902184}</t>
+    <t>{309.0: 0.9989764585465711, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392753, 5.0: 0.053001830257361125, 759.0: 0.005269187803363386}</t>
@@ -2017,10 +2017,10 @@
     <t>{404.0: 0.7774172615184942, 907.0: 0.2225827384815055}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484792, 404.0: 0.0024965955515206537}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.9975391498881434, 404.0: 0.0024608501118568234}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.05686174290825453}</t>
   </si>
   <si>
     <t>{404.0: 0.7774172615184941, 907.0: 0.22258273848150553}</t>
@@ -2044,7 +2044,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749246, 431.0: 0.00018684574941587375, 783.0: 0.00018839487565938212}</t>
+    <t>{430.0: 0.9992810498068839, 431.0: 0.00035663135253636115, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2074,7 +2074,7 @@
     <t>{478.0: 0.7032887077997673, 170.0: 0.29671129220023285}</t>
   </si>
   <si>
-    <t>{479.0: 0.9240044013343363, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380016, 944.0: 0.05350118017309206}</t>
+    <t>{479.0: 0.9235911012950446, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380016, 944.0: 0.05350118017309206}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
@@ -2083,10 +2083,10 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{490.0: 0.977886977886978, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9720767471169998, 97.0: 0.011519836235458273, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9720767471169991, 97.0: 0.011519836235458273, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -2173,7 +2173,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9870836901367744, 752.0: 0.011803962810944783, 728.0: 0.0011123470522803114}</t>
+    <t>{580.0: 0.9873633900010385, 752.0: 0.01152426294668118, 728.0: 0.0011123470522803114}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -2197,7 +2197,7 @@
     <t>{593.0: 0.9966347398395027, 171.0: 0.0033652601604970225}</t>
   </si>
   <si>
-    <t>{593.0: 0.9932388512887629, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.111922299795207e-05, 492.0: 3.031445419210871e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
+    <t>{593.0: 0.9932388512887629, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.111922299795207e-05, 492.0: 3.0314454192108702e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
   </si>
   <si>
     <t>{595.0: 0.9991012043861227, 402.0: 0.0008987956138774043}</t>
@@ -2209,7 +2209,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.9960505529225911, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.9960505529225911, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.974858757062147, 475.0: 0.025141242937853105}</t>
@@ -2269,7 +2269,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.9971296091852505, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.04251700680272111}</t>
@@ -2287,7 +2287,7 @@
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 0.9974817134579119, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606779, 97.0: 4.11281720352593e-06}</t>
+    <t>{696.0: 0.9974817134579119, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606778, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2320,7 +2320,7 @@
     <t>{749.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.806692854513823, 580.0: 0.19330714548617692}</t>
+    <t>{752.0: 0.8066160041894903, 580.0: 0.1933839958105095}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2341,7 +2341,7 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100496, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{772.0: 0.998972602739726, 493.0: 0.0010273972602739725}</t>
@@ -2359,7 +2359,7 @@
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.685269395066832, 889.0: 0.31473060493316796}</t>
   </si>
   <si>
     <t>{787.0: 0.9945477870429763, 500.0: 0.005448831739686044, 277.0: 3.381217337689137e-06}</t>
@@ -2404,13 +2404,13 @@
     <t>{851.0: 0.7625494688606541, 7.0: 0.23745053113934597}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290922, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8504171747915769, 202.0: 0.06267530338672693, 477.0: 0.08456065457257103, 307.0: 8.839720974269256e-05, 207.0: 0.002150977832567094, 680.0: 0.00010749220681500592}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9927664599940953, 695.0: 0.007233540005904927}</t>
+    <t>{852.0: 0.989835809225958, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8504171747915776, 202.0: 0.06267530338672693, 477.0: 0.08462716049435266, 307.0: 8.839720974269256e-05, 207.0: 0.002084471910785455, 680.0: 0.00010749220681500592}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9926963779997018, 695.0: 0.007303622000298106}</t>
   </si>
   <si>
     <t>{861.0: 0.999875668282979, 619.0: 0.00012433171702101205}</t>
@@ -2443,7 +2443,7 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.0049774716761021975, 174.0: 1.4208856343726078e-05}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.0049773524584954265, 174.0: 1.4328073950496138e-05}</t>
   </si>
   <si>
     <t>{861.0: 1.0}</t>
@@ -2461,7 +2461,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9888946350590236, 297.0: 0.005990275426909785, 695.0: 0.005115089514066497}</t>
+    <t>{919.0: 0.9890254656143603, 297.0: 0.005859444871573596, 695.0: 0.005115089514066497}</t>
   </si>
   <si>
     <t>{921.0: 0.9865234019304315, 686.0: 0.013476598069568387}</t>
@@ -2470,7 +2470,7 @@
     <t>{922.0: 0.9315741024854248, 887.0: 0.06842589751457502}</t>
   </si>
   <si>
-    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495125086512, 595.0: 5.7965677625520235e-06}</t>
+    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495551461485, 595.0: 5.796141387578684e-06}</t>
   </si>
   <si>
     <t>{932.0: 0.9982325910215624, 108.0: 0.0017674089784376103}</t>
@@ -2485,13 +2485,13 @@
     <t>{937.0: 0.9949109414758271, 85.0: 0.0050890585241730275}</t>
   </si>
   <si>
-    <t>{940.0: 0.98649977479185, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.98649977479185, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249448, 848.0: 0.16133961771190689, 634.0: 0.03863811026314845}</t>
+    <t>{943.0: 0.7700641420657479, 848.0: 0.1855094754451809, 634.0: 0.04442638248907136}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
